--- a/data_processing/2025/DIII-D - pebble rod/recession rate model/pebble_rod_exposure.xlsx
+++ b/data_processing/2025/DIII-D - pebble rod/recession rate model/pebble_rod_exposure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2025/DIII-D - pebble rod/recession rate model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF565DC4-73FC-8144-8E32-3CAEFCF53052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF9F54-14B2-DE4F-B161-DC97043EEEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3F0054C0-3C06-2F4C-B656-44D9ACE507E7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>shot</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>protrusion (mm)</t>
+  </si>
+  <si>
+    <t>experiment id</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2FE1C4-0B0B-114E-8C6B-BD2CE85A63DB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +473,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,8 +495,11 @@
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -516,8 +522,11 @@
       <c r="G2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,8 +549,11 @@
       <c r="G3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -563,6 +575,9 @@
       </c>
       <c r="G4">
         <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +590,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_processing/2025/DIII-D - pebble rod/recession rate model/pebble_rod_exposure.xlsx
+++ b/data_processing/2025/DIII-D - pebble rod/recession rate model/pebble_rod_exposure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2025/DIII-D - pebble rod/recession rate model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF9F54-14B2-DE4F-B161-DC97043EEEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C5584-09DF-5449-B002-A865D8254016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3F0054C0-3C06-2F4C-B656-44D9ACE507E7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>shot</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>experiment id</t>
+  </si>
+  <si>
+    <t>mass loss (g)</t>
+  </si>
+  <si>
+    <t>mass loss error (g)</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2FE1C4-0B0B-114E-8C6B-BD2CE85A63DB}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +479,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -498,8 +504,14 @@
       <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -525,8 +537,15 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J2">
+        <f>ROUND(SQRT(2)*0.002,3)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -552,8 +571,15 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="1">ROUND(SQRT(2)*0.002,3)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -578,6 +604,13 @@
       </c>
       <c r="H4" s="1">
         <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.284</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing/2025/DIII-D - pebble rod/recession rate model/pebble_rod_exposure.xlsx
+++ b/data_processing/2025/DIII-D - pebble rod/recession rate model/pebble_rod_exposure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2025/DIII-D - pebble rod/recession rate model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C5584-09DF-5449-B002-A865D8254016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B293176C-62EE-0248-9C4D-4F0BB0BCFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3F0054C0-3C06-2F4C-B656-44D9ACE507E7}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{3F0054C0-3C06-2F4C-B656-44D9ACE507E7}"/>
   </bookViews>
   <sheets>
     <sheet name="pebble rod details" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>R5N14</t>
   </si>
   <si>
-    <t>R5N13</t>
-  </si>
-  <si>
     <t>density error (g/cm3)</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>mass loss error (g)</t>
+  </si>
+  <si>
+    <t>R5N12</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2FE1C4-0B0B-114E-8C6B-BD2CE85A63DB}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,28 +487,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0.98799999999999999</v>
@@ -591,10 +591,10 @@
         <v>1.2700000000000001E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.755</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -606,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>1.284</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF509E9-82B5-184F-AE70-8434A7237DB2}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>203785</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2</v>
